--- a/biology/Biochimie/Haptène/Haptène.xlsx
+++ b/biology/Biochimie/Haptène/Haptène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hapt%C3%A8ne</t>
+          <t>Haptène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un haptène est un des deux éléments constitutifs d'un antigène : c'est une substance de faible poids moléculaire (généralement un polysaccharide) dont la structure varie avec chaque antigène et dont dépend sa spécificité. C'est elle qui réagira avec l'anticorps correspondant mais ne peut à elle seule en provoquer la formation. Cette dernière se produit seulement après association à l'haptène d'une substance protidique ou polysaccharidique : le porteur ; cette association est indispensable pour conférer à l'haptène un pouvoir immunogène.
 L'immunochimie des haptènes est due à Karl Landsteiner, dans les années 1910.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hapt%C3%A8ne</t>
+          <t>Haptène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Types d'haptènes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Haptène à fonction réactive : 2,4 Dinitrophenol ou DNP.
 Un peptide de petite taille peut également réagir comme un haptène.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hapt%C3%A8ne</t>
+          <t>Haptène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Types de Transporteur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hémocyanine
 Albumine Bovine
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hapt%C3%A8ne</t>
+          <t>Haptène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Couplages Haptènes-transporteur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe plusieurs techniques de couplage peptides/haptènes-transporteur:
 Couplage du DNP à fonction réactive.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hapt%C3%A8ne</t>
+          <t>Haptène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Cas de la Pénicilline</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pénicilline contient un cycle béta-lactame qui à pH neutre peut s'ouvrir permettant l'association avec des protéines sériques, souvent l'albumine, induisant ainsi la formation d'une molécule immunogène et antigénique conduisant donc à une réaction allergique dirigée contre la pénicilline.
 </t>
